--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신정길\Desktop\SE2017_7_turkey\doc\4_ 테스트케이스 및 테스트결과보고서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\SE2017_7_turkey\doc\4_ 테스트케이스 및 테스트결과보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
     <sheet name="테스트케이스" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="302">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -995,11 +995,6 @@
   </si>
   <si>
     <t>Subject 등록, 
-Subject Change 프레임 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Subject 등록, 
 Subject Manage 프레임 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1079,12 +1074,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>To do 등록 및 완료 상태, 
-숨기기 상태, 
-To do List 프레임 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hide 버튼 클릭, 
 Back 버튼 클릭,
  To do List 버튼 클릭</t>
@@ -1136,34 +1125,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>항목 선택,
+ Delete 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나의 정보 미기재, 
+나머지 정상정보 기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존의 입력했던 To do와 
+같은 항목명 입력하고 같은 과목 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목 선택, 
+Change 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>항목 선택, 
 Change 버튼 클릭,
  변경값 입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>항목 선택,
- Change 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목 선택,
- Delete 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나의 정보 미기재, 
-나머지 정상정보 기재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존의 입력했던 To do와 
-같은 항목명 입력하고 같은 과목 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>항목 선택, 
-Change 버튼 클릭</t>
+Delete 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To do 여러 개 등록, 
+To do List 프레임 출력, 
+특정 정렬 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To do 항목들이 특정 정렬 상태에서 초기의 
+상태로 정렬되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject Add 프레임이 종료되고 
+Subject Manage프레임으로 돌아감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject Change 프레임이 종료되고 
+Subject Manage프레임으로 돌아감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 과목정보 입력 
+2. Add 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목 변경 기능 확인</t>
+  </si>
+  <si>
+    <t>Subject 등록, 
+Subject Change 프레임 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1173,34 +1196,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>항목 선택, 
-Delete 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To do 여러 개 등록, 
-To do List 프레임 출력, 
-특정 정렬 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To do 항목들이 특정 정렬 상태에서 초기의 
-상태로 정렬되는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Subject Add 프레임이 종료되고 
-Subject Manage프레임으로 돌아감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Subject Change 프레임이 종료되고 
-Subject Manage프레임으로 돌아감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 과목정보 입력 
-2. Add 클릭</t>
+    <t>항목 선택,
+ Change 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결함  추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김희애</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject 등록, 
+Subject Change 프레임 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목 선택,  
+Change 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 항목을 선택 후 Change 버튼을 클릭
+2. 정보를 미기재하고 Change 버튼을 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#973</t>
+  </si>
+  <si>
+    <t>2017.06.07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1290,7 +1341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1483,13 +1534,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1559,9 +1636,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1570,6 +1644,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1887,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1905,17 +1991,17 @@
     <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="D4" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="15"/>
@@ -1950,23 +2036,31 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="D10" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="21"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="22"/>
+      <c r="A11" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="21"/>
@@ -2084,9 +2178,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2114,7 +2208,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -2130,7 +2224,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2253,7 +2347,7 @@
       <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>244</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -2285,7 +2379,7 @@
       <c r="D12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>245</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -2327,7 +2421,7 @@
       <c r="H13" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="24" t="s">
         <v>112</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -2380,8 +2474,8 @@
       <c r="G15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="24" t="s">
-        <v>286</v>
+      <c r="H15" s="23" t="s">
+        <v>282</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>47</v>
@@ -2409,8 +2503,8 @@
       <c r="F16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="24" t="s">
-        <v>288</v>
+      <c r="G16" s="23" t="s">
+        <v>284</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>183</v>
@@ -2436,10 +2530,10 @@
       <c r="E17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" s="24" t="s">
+      <c r="F17" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>232</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -2498,10 +2592,10 @@
       <c r="E19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="G19" s="24" t="s">
+      <c r="F19" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="G19" s="23" t="s">
         <v>233</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -2527,7 +2621,7 @@
       <c r="D20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>246</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -2559,7 +2653,7 @@
       <c r="D21" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>247</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -2568,8 +2662,8 @@
       <c r="G21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="24" t="s">
-        <v>287</v>
+      <c r="H21" s="23" t="s">
+        <v>283</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>47</v>
@@ -2591,13 +2685,13 @@
       <c r="D22" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="F22" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="G22" s="24" t="s">
+      <c r="F22" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="G22" s="23" t="s">
         <v>234</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -2621,13 +2715,13 @@
       <c r="D23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="G23" s="24" t="s">
+      <c r="E23" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="G23" s="23" t="s">
         <v>235</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -2653,7 +2747,7 @@
       <c r="D24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="23" t="s">
         <v>247</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -2683,7 +2777,7 @@
       <c r="D25" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>244</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -2715,13 +2809,13 @@
       <c r="D26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="G26" s="24" t="s">
+      <c r="E26" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="G26" s="23" t="s">
         <v>236</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -2771,8 +2865,8 @@
       <c r="D28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>250</v>
+      <c r="E28" s="23" t="s">
+        <v>249</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>94</v>
@@ -2803,8 +2897,8 @@
       <c r="D29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>251</v>
+      <c r="E29" s="23" t="s">
+        <v>250</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>189</v>
@@ -2898,8 +2992,8 @@
       <c r="G32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="24" t="s">
-        <v>267</v>
+      <c r="H32" s="23" t="s">
+        <v>265</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>47</v>
@@ -2927,7 +3021,7 @@
       <c r="F33" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="23" t="s">
         <v>237</v>
       </c>
       <c r="H33" s="5" t="s">
@@ -2954,8 +3048,8 @@
       <c r="E34" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="24" t="s">
-        <v>279</v>
+      <c r="F34" s="23" t="s">
+        <v>275</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>77</v>
@@ -2986,10 +3080,10 @@
       <c r="E35" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="G35" s="24" t="s">
+      <c r="F35" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="G35" s="23" t="s">
         <v>243</v>
       </c>
       <c r="H35" s="5" t="s">
@@ -3045,13 +3139,13 @@
       <c r="D37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="G37" s="24" t="s">
+      <c r="E37" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="G37" s="23" t="s">
         <v>238</v>
       </c>
       <c r="H37" s="5" t="s">
@@ -3075,8 +3169,8 @@
       <c r="D38" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E38" s="24" t="s">
-        <v>252</v>
+      <c r="E38" s="23" t="s">
+        <v>251</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>78</v>
@@ -3107,8 +3201,8 @@
       <c r="D39" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="24" t="s">
-        <v>253</v>
+      <c r="E39" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>70</v>
@@ -3116,8 +3210,8 @@
       <c r="G39" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H39" s="24" t="s">
-        <v>268</v>
+      <c r="H39" s="23" t="s">
+        <v>266</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>47</v>
@@ -3139,13 +3233,13 @@
       <c r="D40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="G40" s="24" t="s">
+      <c r="E40" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" s="23" t="s">
         <v>239</v>
       </c>
       <c r="H40" s="5" t="s">
@@ -3169,8 +3263,8 @@
       <c r="D41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="24" t="s">
-        <v>255</v>
+      <c r="E41" s="23" t="s">
+        <v>254</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>61</v>
@@ -3199,8 +3293,8 @@
       <c r="D42" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E42" s="24" t="s">
-        <v>254</v>
+      <c r="E42" s="23" t="s">
+        <v>253</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>88</v>
@@ -3231,13 +3325,13 @@
       <c r="D43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="G43" s="24" t="s">
+      <c r="E43" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="G43" s="23" t="s">
         <v>236</v>
       </c>
       <c r="H43" s="5" t="s">
@@ -3261,8 +3355,8 @@
       <c r="D44" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="24" t="s">
-        <v>256</v>
+      <c r="E44" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>80</v>
@@ -3291,8 +3385,8 @@
       <c r="D45" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="24" t="s">
-        <v>257</v>
+      <c r="E45" s="23" t="s">
+        <v>256</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>81</v>
@@ -3321,8 +3415,8 @@
       <c r="D46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="24" t="s">
-        <v>258</v>
+      <c r="E46" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>82</v>
@@ -3351,8 +3445,8 @@
       <c r="D47" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="24" t="s">
-        <v>257</v>
+      <c r="E47" s="23" t="s">
+        <v>256</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>83</v>
@@ -3378,11 +3472,11 @@
       <c r="C48" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D48" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>284</v>
+      <c r="D48" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>280</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>175</v>
@@ -3411,8 +3505,8 @@
       <c r="D49" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="24" t="s">
-        <v>259</v>
+      <c r="E49" s="23" t="s">
+        <v>258</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>98</v>
@@ -3441,8 +3535,8 @@
       <c r="D50" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E50" s="24" t="s">
-        <v>260</v>
+      <c r="E50" s="23" t="s">
+        <v>259</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>98</v>
@@ -3471,13 +3565,13 @@
       <c r="D51" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="G51" s="24" t="s">
+      <c r="E51" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="G51" s="23" t="s">
         <v>241</v>
       </c>
       <c r="H51" s="5" t="s">
@@ -3501,8 +3595,8 @@
       <c r="D52" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E52" s="24" t="s">
-        <v>262</v>
+      <c r="E52" s="23" t="s">
+        <v>261</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>103</v>
@@ -3531,8 +3625,8 @@
       <c r="D53" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E53" s="24" t="s">
-        <v>263</v>
+      <c r="E53" s="23" t="s">
+        <v>262</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>103</v>
@@ -3561,13 +3655,13 @@
       <c r="D54" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="G54" s="24" t="s">
+      <c r="E54" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="G54" s="23" t="s">
         <v>242</v>
       </c>
       <c r="H54" s="5" t="s">
@@ -3581,8 +3675,37 @@
       </c>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J55"/>
+    <row r="55" spans="2:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="I55" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="K55" s="29" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J56"/>
